--- a/raw_data/20200818_saline/20200818_Sensor2_Test_50.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_50.xlsx
@@ -1,1309 +1,1725 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077A8B1C-1530-4C34-B461-5A6EDBEA0B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>44473.282650</v>
+        <v>44473.282650000001</v>
       </c>
       <c r="B2" s="1">
-        <v>12.353690</v>
+        <v>12.35369</v>
       </c>
       <c r="C2" s="1">
-        <v>1246.920000</v>
+        <v>1246.92</v>
       </c>
       <c r="D2" s="1">
-        <v>-283.712000</v>
+        <v>-283.71199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>44483.671358</v>
       </c>
       <c r="G2" s="1">
-        <v>12.356575</v>
+        <v>12.356574999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.830000</v>
+        <v>1269.83</v>
       </c>
       <c r="I2" s="1">
-        <v>-247.744000</v>
+        <v>-247.744</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>44494.101231</v>
+        <v>44494.101231000001</v>
       </c>
       <c r="L2" s="1">
-        <v>12.359473</v>
+        <v>12.359472999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.350000</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-195.280000</v>
+        <v>-195.28</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>44504.897648</v>
+        <v>44504.897647999998</v>
       </c>
       <c r="Q2" s="1">
         <v>12.362472</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.710000</v>
+        <v>1317.71</v>
       </c>
       <c r="S2" s="1">
-        <v>-179.738000</v>
+        <v>-179.738</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>44515.417794</v>
+        <v>44515.417794000001</v>
       </c>
       <c r="V2" s="1">
         <v>12.365394</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.760000</v>
+        <v>1331.76</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.452000</v>
+        <v>-168.452</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>44525.825349</v>
+        <v>44525.825348999999</v>
       </c>
       <c r="AA2" s="1">
         <v>12.368285</v>
       </c>
       <c r="AB2" s="1">
-        <v>1350.310000</v>
+        <v>1350.31</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.929000</v>
+        <v>-167.929</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>44536.379224</v>
+        <v>44536.379223999997</v>
       </c>
       <c r="AF2" s="1">
         <v>12.371216</v>
       </c>
       <c r="AG2" s="1">
-        <v>1363.750000</v>
+        <v>1363.75</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.083000</v>
+        <v>-178.083</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>44546.846793</v>
+        <v>44546.846792999997</v>
       </c>
       <c r="AK2" s="1">
         <v>12.374124</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.850000</v>
+        <v>1384.85</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.397000</v>
+        <v>-208.39699999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>44557.735007</v>
+        <v>44557.735007000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.377149</v>
+        <v>12.377148999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.730000</v>
+        <v>1406.73</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.422000</v>
+        <v>-252.422</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>44568.789316</v>
+        <v>44568.789316000002</v>
       </c>
       <c r="AU2" s="1">
         <v>12.380219</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.400000</v>
+        <v>1431.4</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.505000</v>
+        <v>-312.505</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>44579.624942</v>
+        <v>44579.624942000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>12.383229</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.624000</v>
+        <v>-364.62400000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>44590.513583</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.386254</v>
+        <v>12.386253999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1536.130000</v>
+        <v>1536.13</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.057000</v>
+        <v>-613.05700000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>44601.133923</v>
+        <v>44601.133923000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>12.389204</v>
+        <v>12.389203999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1690.300000</v>
+        <v>1690.3</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1058.510000</v>
+        <v>-1058.51</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>44612.543890</v>
+        <v>44612.543890000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.392373</v>
+        <v>12.392372999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1984.360000</v>
+        <v>1984.36</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1830.470000</v>
+        <v>-1830.47</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>44625.231059</v>
+        <v>44625.231058999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.395898</v>
+        <v>12.395898000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2372.230000</v>
+        <v>2372.23</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2724.610000</v>
+        <v>-2724.61</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>44636.063685</v>
+        <v>44636.063685000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.398907</v>
+        <v>12.398906999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.610000</v>
+        <v>2853.61</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3696.310000</v>
+        <v>-3696.31</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>44647.053047</v>
+        <v>44647.053047000001</v>
       </c>
       <c r="CD2" s="1">
         <v>12.401959</v>
       </c>
       <c r="CE2" s="1">
-        <v>4266.460000</v>
+        <v>4266.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6039.050000</v>
+        <v>-6039.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>44473.631834</v>
       </c>
       <c r="B3" s="1">
-        <v>12.353787</v>
+        <v>12.353787000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.010000</v>
+        <v>1247.01</v>
       </c>
       <c r="D3" s="1">
-        <v>-283.594000</v>
+        <v>-283.59399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>44484.011644</v>
+        <v>44484.011643999998</v>
       </c>
       <c r="G3" s="1">
-        <v>12.356670</v>
+        <v>12.356669999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.290000</v>
+        <v>1269.29</v>
       </c>
       <c r="I3" s="1">
-        <v>-248.741000</v>
+        <v>-248.74100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>44494.815470</v>
+        <v>44494.815470000001</v>
       </c>
       <c r="L3" s="1">
-        <v>12.359671</v>
+        <v>12.359671000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.250000</v>
+        <v>1305.25</v>
       </c>
       <c r="N3" s="1">
-        <v>-195.304000</v>
+        <v>-195.304</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>44505.248816</v>
+        <v>44505.248815999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.362569</v>
+        <v>12.362569000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.680000</v>
+        <v>1317.68</v>
       </c>
       <c r="S3" s="1">
-        <v>-179.697000</v>
+        <v>-179.697</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>44515.764034</v>
       </c>
       <c r="V3" s="1">
-        <v>12.365490</v>
+        <v>12.365489999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.890000</v>
+        <v>1331.89</v>
       </c>
       <c r="X3" s="1">
-        <v>-168.492000</v>
+        <v>-168.49199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>44526.183988</v>
+        <v>44526.183987999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.368384</v>
+        <v>12.368384000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1350.240000</v>
+        <v>1350.24</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.654000</v>
+        <v>-167.654</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>44537.064230</v>
+        <v>44537.064230000004</v>
       </c>
       <c r="AF3" s="1">
         <v>12.371407</v>
       </c>
       <c r="AG3" s="1">
-        <v>1363.710000</v>
+        <v>1363.71</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.133000</v>
+        <v>-178.13300000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>44547.539704</v>
+        <v>44547.539704000003</v>
       </c>
       <c r="AK3" s="1">
         <v>12.374317</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.850000</v>
+        <v>1384.85</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.402000</v>
+        <v>-208.40199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>44558.172442</v>
+        <v>44558.172442000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.377270</v>
+        <v>12.377269999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.740000</v>
+        <v>1406.74</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.352000</v>
+        <v>-252.352</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>44569.168779</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.380325</v>
+        <v>12.380324999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.430000</v>
+        <v>1431.43</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.481000</v>
+        <v>-312.48099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>44579.985501</v>
+        <v>44579.985501000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.383329</v>
       </c>
       <c r="BA3" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.668000</v>
+        <v>-364.66800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>44590.897983</v>
+        <v>44590.897983000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.386361</v>
+        <v>12.386361000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1536.130000</v>
+        <v>1536.13</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.098000</v>
+        <v>-613.09799999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>44601.589759</v>
+        <v>44601.589759000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.389330</v>
+        <v>12.389329999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1690.220000</v>
+        <v>1690.22</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1058.570000</v>
+        <v>-1058.57</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>44612.965031</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.392490</v>
+        <v>12.39249</v>
       </c>
       <c r="BP3" s="1">
-        <v>1984.140000</v>
+        <v>1984.14</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1830.590000</v>
+        <v>-1830.59</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>44625.412593</v>
+        <v>44625.412593000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.395948</v>
+        <v>12.395948000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2372.720000</v>
+        <v>2372.7199999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2724.650000</v>
+        <v>-2724.65</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>44636.546818</v>
+        <v>44636.546818000003</v>
       </c>
       <c r="BY3" s="1">
         <v>12.399041</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2853.670000</v>
+        <v>2853.67</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3697.020000</v>
+        <v>-3697.02</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>44647.611043</v>
+        <v>44647.611042999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>12.402114</v>
+        <v>12.402113999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4277.170000</v>
+        <v>4277.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6057.280000</v>
+        <v>-6057.28</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>44474.320777</v>
+        <v>44474.320777000001</v>
       </c>
       <c r="B4" s="1">
         <v>12.353978</v>
       </c>
       <c r="C4" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-283.761000</v>
+        <v>-283.76100000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>44484.702043</v>
+        <v>44484.702042999998</v>
       </c>
       <c r="G4" s="1">
         <v>12.356862</v>
       </c>
       <c r="H4" s="1">
-        <v>1270.100000</v>
+        <v>1270.0999999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-247.836000</v>
+        <v>-247.83600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>44495.159199</v>
+        <v>44495.159199000002</v>
       </c>
       <c r="L4" s="1">
         <v>12.359766</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.190000</v>
+        <v>1305.19</v>
       </c>
       <c r="N4" s="1">
-        <v>-195.072000</v>
+        <v>-195.072</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>44505.600513</v>
+        <v>44505.600512999998</v>
       </c>
       <c r="Q4" s="1">
         <v>12.362667</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.760000</v>
+        <v>1317.76</v>
       </c>
       <c r="S4" s="1">
-        <v>-179.646000</v>
+        <v>-179.64599999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>44516.105780</v>
+        <v>44516.105779999998</v>
       </c>
       <c r="V4" s="1">
-        <v>12.365585</v>
+        <v>12.365584999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.970000</v>
+        <v>1331.97</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.618000</v>
+        <v>-168.61799999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>44526.850612</v>
+        <v>44526.850612000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.368570</v>
+        <v>12.36857</v>
       </c>
       <c r="AB4" s="1">
-        <v>1350.350000</v>
+        <v>1350.35</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.848000</v>
+        <v>-167.84800000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>44537.468934</v>
+        <v>44537.468933999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.371519</v>
+        <v>12.371518999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1363.830000</v>
+        <v>1363.83</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.023000</v>
+        <v>-178.023</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44547.925126</v>
+        <v>44547.925126000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.374424</v>
+        <v>12.374423999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.840000</v>
+        <v>1384.84</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.399000</v>
+        <v>-208.399</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>44558.534026</v>
+        <v>44558.534026000001</v>
       </c>
       <c r="AP4" s="1">
         <v>12.377371</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.730000</v>
+        <v>1406.73</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.369000</v>
+        <v>-252.369</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>44569.535787</v>
+        <v>44569.535787000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>12.380427</v>
+        <v>12.380426999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.420000</v>
+        <v>1431.42</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.513000</v>
+        <v>-312.51299999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>44580.344606</v>
+        <v>44580.344605999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>12.383429</v>
       </c>
       <c r="BA4" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.672000</v>
+        <v>-364.67200000000003</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>44591.310656</v>
+        <v>44591.310656000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>12.386475</v>
+        <v>12.386475000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1536.100000</v>
+        <v>1536.1</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.120000</v>
+        <v>-613.12</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>44602.285136</v>
+        <v>44602.285135999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>12.389524</v>
       </c>
       <c r="BK4" s="1">
-        <v>1690.250000</v>
+        <v>1690.25</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1058.600000</v>
+        <v>-1058.5999999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>44613.387089</v>
+        <v>44613.387089000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.392608</v>
+        <v>12.392607999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1984.110000</v>
+        <v>1984.11</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1830.640000</v>
+        <v>-1830.64</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>44625.843618</v>
+        <v>44625.843617999999</v>
       </c>
       <c r="BT4" s="1">
         <v>12.396068</v>
       </c>
       <c r="BU4" s="1">
-        <v>2373.020000</v>
+        <v>2373.02</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2724.110000</v>
+        <v>-2724.11</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>44636.997154</v>
+        <v>44636.997153999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.399166</v>
+        <v>12.399165999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2854.520000</v>
+        <v>2854.52</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3696.970000</v>
+        <v>-3696.97</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>44648.152677</v>
+        <v>44648.152676999998</v>
       </c>
       <c r="CD4" s="1">
         <v>12.402265</v>
       </c>
       <c r="CE4" s="1">
-        <v>4276.510000</v>
+        <v>4276.51</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6035.360000</v>
+        <v>-6035.36</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>44474.663544</v>
+        <v>44474.663544000003</v>
       </c>
       <c r="B5" s="1">
         <v>12.354073</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.120000</v>
+        <v>1247.1199999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-283.581000</v>
+        <v>-283.58100000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>44485.048779</v>
+        <v>44485.048778999997</v>
       </c>
       <c r="G5" s="1">
-        <v>12.356958</v>
+        <v>12.356958000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="I5" s="1">
-        <v>-248.088000</v>
+        <v>-248.08799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>44495.508380</v>
+        <v>44495.508379999999</v>
       </c>
       <c r="L5" s="1">
-        <v>12.359863</v>
+        <v>12.359863000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.270000</v>
+        <v>1305.27</v>
       </c>
       <c r="N5" s="1">
-        <v>-195.300000</v>
+        <v>-195.3</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>44506.262639</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.362851</v>
+        <v>12.362850999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.830000</v>
+        <v>1317.83</v>
       </c>
       <c r="S5" s="1">
-        <v>-179.815000</v>
+        <v>-179.815</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>44516.755009</v>
@@ -1312,73 +1728,73 @@
         <v>12.365765</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.910000</v>
+        <v>1331.91</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.392000</v>
+        <v>-168.392</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>44527.232038</v>
+        <v>44527.232038000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>12.368676</v>
+        <v>12.368676000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1350.250000</v>
+        <v>1350.25</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.826000</v>
+        <v>-167.82599999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>44537.816134</v>
+        <v>44537.816134000001</v>
       </c>
       <c r="AF5" s="1">
         <v>12.371616</v>
       </c>
       <c r="AG5" s="1">
-        <v>1363.570000</v>
+        <v>1363.57</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.146000</v>
+        <v>-178.14599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>44548.270839</v>
+        <v>44548.270838999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.374520</v>
+        <v>12.37452</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.860000</v>
+        <v>1384.86</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.381000</v>
+        <v>-208.381</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>44558.891674</v>
+        <v>44558.891673999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.377470</v>
+        <v>12.377470000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.740000</v>
+        <v>1406.74</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.370000</v>
+        <v>-252.37</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>44569.956928</v>
@@ -1387,103 +1803,103 @@
         <v>12.380544</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.500000</v>
+        <v>-312.5</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>44580.763757</v>
+        <v>44580.763757000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.383545</v>
       </c>
       <c r="BA5" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.611000</v>
+        <v>-364.61099999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>44591.618174</v>
+        <v>44591.618174000003</v>
       </c>
       <c r="BE5" s="1">
         <v>12.386561</v>
       </c>
       <c r="BF5" s="1">
-        <v>1536.100000</v>
+        <v>1536.1</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.099000</v>
+        <v>-613.09900000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>44602.663089</v>
+        <v>44602.663089000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.389629</v>
+        <v>12.389628999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1690.200000</v>
+        <v>1690.2</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1058.600000</v>
+        <v>-1058.5999999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>44613.781906</v>
+        <v>44613.781905999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.392717</v>
+        <v>12.392716999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1983.980000</v>
+        <v>1983.98</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1830.700000</v>
+        <v>-1830.7</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>44626.257314</v>
+        <v>44626.257314000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.396183</v>
+        <v>12.396183000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2373.450000</v>
+        <v>2373.4499999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2723.490000</v>
+        <v>-2723.49</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>44637.452482</v>
+        <v>44637.452482000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.399292</v>
+        <v>12.399292000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.920000</v>
+        <v>2853.92</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3696.200000</v>
+        <v>-3696.2</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>44648.691368</v>
@@ -1492,754 +1908,754 @@
         <v>12.402414</v>
       </c>
       <c r="CE5" s="1">
-        <v>4265.820000</v>
+        <v>4265.82</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6056.540000</v>
+        <v>-6056.54</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>44475.006285</v>
+        <v>44475.006285000003</v>
       </c>
       <c r="B6" s="1">
         <v>12.354168</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.080000</v>
+        <v>1247.08</v>
       </c>
       <c r="D6" s="1">
-        <v>-283.687000</v>
+        <v>-283.68700000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>44485.395452</v>
+        <v>44485.395451999997</v>
       </c>
       <c r="G6" s="1">
         <v>12.357054</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.840000</v>
+        <v>1270.8399999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-248.952000</v>
+        <v>-248.952</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>44496.170045</v>
+        <v>44496.170044999999</v>
       </c>
       <c r="L6" s="1">
         <v>12.360047</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N6" s="1">
-        <v>-194.939000</v>
+        <v>-194.93899999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>44506.646075</v>
+        <v>44506.646074999997</v>
       </c>
       <c r="Q6" s="1">
         <v>12.362957</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S6" s="1">
-        <v>-179.841000</v>
+        <v>-179.84100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>44517.138947</v>
+        <v>44517.138946999999</v>
       </c>
       <c r="V6" s="1">
         <v>12.365872</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.840000</v>
+        <v>1331.84</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.400000</v>
+        <v>-168.4</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>44527.577714</v>
+        <v>44527.577713999999</v>
       </c>
       <c r="AA6" s="1">
         <v>12.368772</v>
       </c>
       <c r="AB6" s="1">
-        <v>1350.210000</v>
+        <v>1350.21</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.820000</v>
+        <v>-167.82</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>44538.160383</v>
+        <v>44538.160383000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.371711</v>
+        <v>12.371710999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1363.650000</v>
+        <v>1363.65</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.014000</v>
+        <v>-178.01400000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>44548.622006</v>
+        <v>44548.622005999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.374617</v>
+        <v>12.374617000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.810000</v>
+        <v>1384.81</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.422000</v>
+        <v>-208.422</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>44559.321206</v>
+        <v>44559.321206000001</v>
       </c>
       <c r="AP6" s="1">
         <v>12.377589</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.397000</v>
+        <v>-252.39699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>44570.264410</v>
+        <v>44570.264410000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.380629</v>
+        <v>12.380629000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.420000</v>
+        <v>1431.42</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.457000</v>
+        <v>-312.45699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>44581.060860</v>
+        <v>44581.060859999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.383628</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.648000</v>
+        <v>-364.64800000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>44591.982270</v>
+        <v>44591.98227</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.386662</v>
+        <v>12.386661999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1536.090000</v>
+        <v>1536.09</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.096000</v>
+        <v>-613.096</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>44603.038095</v>
+        <v>44603.038095000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.389733</v>
       </c>
       <c r="BK6" s="1">
-        <v>1690.250000</v>
+        <v>1690.25</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1058.540000</v>
+        <v>-1058.54</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>44614.203531</v>
+        <v>44614.203530999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.392834</v>
+        <v>12.392834000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1983.900000</v>
+        <v>1983.9</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1830.820000</v>
+        <v>-1830.82</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>44626.687348</v>
+        <v>44626.687347999999</v>
       </c>
       <c r="BT6" s="1">
         <v>12.396302</v>
       </c>
       <c r="BU6" s="1">
-        <v>2373.420000</v>
+        <v>2373.42</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2722.810000</v>
+        <v>-2722.81</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>44637.899391</v>
+        <v>44637.899390999999</v>
       </c>
       <c r="BY6" s="1">
         <v>12.399416</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.470000</v>
+        <v>2853.47</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3696.930000</v>
+        <v>-3696.93</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>44649.231005</v>
+        <v>44649.231005000001</v>
       </c>
       <c r="CD6" s="1">
         <v>12.402564</v>
       </c>
       <c r="CE6" s="1">
-        <v>4282.210000</v>
+        <v>4282.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6045.270000</v>
+        <v>-6045.27</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>44475.664936</v>
+        <v>44475.664936000001</v>
       </c>
       <c r="B7" s="1">
-        <v>12.354351</v>
+        <v>12.354350999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.060000</v>
+        <v>1247.06</v>
       </c>
       <c r="D7" s="1">
-        <v>-283.840000</v>
+        <v>-283.83999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>44486.063104</v>
+        <v>44486.063104000001</v>
       </c>
       <c r="G7" s="1">
-        <v>12.357240</v>
+        <v>12.357239999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.820000</v>
+        <v>1269.82</v>
       </c>
       <c r="I7" s="1">
-        <v>-247.745000</v>
+        <v>-247.745</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>44496.539565</v>
+        <v>44496.539564999999</v>
       </c>
       <c r="L7" s="1">
-        <v>12.360150</v>
+        <v>12.360150000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.190000</v>
+        <v>1305.19</v>
       </c>
       <c r="N7" s="1">
-        <v>-195.478000</v>
+        <v>-195.47800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>44506.990798</v>
+        <v>44506.990797999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>12.363053</v>
+        <v>12.363053000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.720000</v>
+        <v>1317.72</v>
       </c>
       <c r="S7" s="1">
-        <v>-179.799000</v>
+        <v>-179.79900000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>44517.481648</v>
+        <v>44517.481648000001</v>
       </c>
       <c r="V7" s="1">
-        <v>12.365967</v>
+        <v>12.365966999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.750000</v>
+        <v>1331.75</v>
       </c>
       <c r="X7" s="1">
-        <v>-168.658000</v>
+        <v>-168.65799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>44527.928418</v>
+        <v>44527.928418000003</v>
       </c>
       <c r="AA7" s="1">
         <v>12.368869</v>
       </c>
       <c r="AB7" s="1">
-        <v>1350.320000</v>
+        <v>1350.32</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.729000</v>
+        <v>-167.72900000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>44538.578020</v>
+        <v>44538.578020000001</v>
       </c>
       <c r="AF7" s="1">
         <v>12.371827</v>
       </c>
       <c r="AG7" s="1">
-        <v>1363.690000</v>
+        <v>1363.69</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.014000</v>
+        <v>-178.01400000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>44549.048535</v>
+        <v>44549.048535000002</v>
       </c>
       <c r="AK7" s="1">
         <v>12.374736</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.820000</v>
+        <v>1384.82</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.369000</v>
+        <v>-208.369</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>44559.610848</v>
+        <v>44559.610847999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.377670</v>
+        <v>12.37767</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.395000</v>
+        <v>-252.39500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>44570.632970</v>
+        <v>44570.632969999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>12.380731</v>
+        <v>12.380731000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.489000</v>
+        <v>-312.48899999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>44581.419931</v>
+        <v>44581.419930999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>12.383728</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.582000</v>
+        <v>-364.58199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>44592.344316</v>
+        <v>44592.344316000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.386762</v>
+        <v>12.386761999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1536.120000</v>
+        <v>1536.12</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.056000</v>
+        <v>-613.05600000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>44603.789005</v>
+        <v>44603.789004999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.389941</v>
       </c>
       <c r="BK7" s="1">
-        <v>1690.200000</v>
+        <v>1690.2</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1058.570000</v>
+        <v>-1058.57</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>44615.018467</v>
+        <v>44615.018467000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.393061</v>
+        <v>12.393060999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1984.020000</v>
+        <v>1984.02</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1830.770000</v>
+        <v>-1830.77</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>44627.115856</v>
+        <v>44627.115855999997</v>
       </c>
       <c r="BT7" s="1">
         <v>12.396421</v>
       </c>
       <c r="BU7" s="1">
-        <v>2373.380000</v>
+        <v>2373.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2722.300000</v>
+        <v>-2722.3</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>44638.355238</v>
+        <v>44638.355237999996</v>
       </c>
       <c r="BY7" s="1">
         <v>12.399543</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.290000</v>
+        <v>2853.29</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3696.890000</v>
+        <v>-3696.89</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>44649.773633</v>
+        <v>44649.773632999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>12.402715</v>
+        <v>12.402715000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4264.540000</v>
+        <v>4264.54</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6040.900000</v>
+        <v>-6040.9</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>44476.035532</v>
+        <v>44476.035532000002</v>
       </c>
       <c r="B8" s="1">
         <v>12.354454</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="D8" s="1">
-        <v>-283.703000</v>
+        <v>-283.70299999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>44486.431634</v>
       </c>
       <c r="G8" s="1">
-        <v>12.357342</v>
+        <v>12.357341999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.790000</v>
+        <v>1269.79</v>
       </c>
       <c r="I8" s="1">
-        <v>-247.655000</v>
+        <v>-247.655</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>44496.889245</v>
+        <v>44496.889244999998</v>
       </c>
       <c r="L8" s="1">
-        <v>12.360247</v>
+        <v>12.360246999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.400000</v>
+        <v>1305.4000000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-195.432000</v>
+        <v>-195.43199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>44507.341933</v>
+        <v>44507.341933000003</v>
       </c>
       <c r="Q8" s="1">
         <v>12.363151</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.720000</v>
+        <v>1317.72</v>
       </c>
       <c r="S8" s="1">
-        <v>-179.744000</v>
+        <v>-179.744</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>44517.825873</v>
+        <v>44517.825873000002</v>
       </c>
       <c r="V8" s="1">
         <v>12.366063</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.810000</v>
+        <v>1331.81</v>
       </c>
       <c r="X8" s="1">
-        <v>-168.297000</v>
+        <v>-168.297</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>44528.360433</v>
+        <v>44528.360433000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.368989</v>
+        <v>12.368988999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1350.210000</v>
+        <v>1350.21</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.766000</v>
+        <v>-167.76599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>44538.857235</v>
+        <v>44538.857235000003</v>
       </c>
       <c r="AF8" s="1">
         <v>12.371905</v>
       </c>
       <c r="AG8" s="1">
-        <v>1363.770000</v>
+        <v>1363.77</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.978000</v>
+        <v>-177.97800000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>44549.330759</v>
+        <v>44549.330758999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.374814</v>
+        <v>12.374814000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.850000</v>
+        <v>1384.85</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.389000</v>
+        <v>-208.38900000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>44559.973448</v>
+        <v>44559.973447999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.377770</v>
+        <v>12.37777</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.439000</v>
+        <v>-252.43899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>44570.993035</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.380831</v>
+        <v>12.380831000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.420000</v>
+        <v>1431.42</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.505000</v>
+        <v>-312.505</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>44581.780027</v>
+        <v>44581.780027000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.383828</v>
+        <v>12.383827999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1450.830000</v>
+        <v>1450.83</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.659000</v>
+        <v>-364.65899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>44593.066023</v>
+        <v>44593.066022999999</v>
       </c>
       <c r="BE8" s="1">
         <v>12.386963</v>
       </c>
       <c r="BF8" s="1">
-        <v>1536.080000</v>
+        <v>1536.08</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.070000</v>
+        <v>-613.07000000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>44604.164973</v>
+        <v>44604.164972999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.390046</v>
       </c>
       <c r="BK8" s="1">
-        <v>1690.190000</v>
+        <v>1690.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1058.570000</v>
+        <v>-1058.57</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>44615.438579</v>
+        <v>44615.438579000001</v>
       </c>
       <c r="BO8" s="1">
         <v>12.393177</v>
       </c>
       <c r="BP8" s="1">
-        <v>1983.850000</v>
+        <v>1983.85</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1830.850000</v>
+        <v>-1830.85</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>44627.524095</v>
+        <v>44627.524095000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.396534</v>
+        <v>12.396534000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2372.960000</v>
+        <v>2372.96</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2721.490000</v>
+        <v>-2721.49</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>44639.115071</v>
@@ -2248,90 +2664,90 @@
         <v>12.399754</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2853.110000</v>
+        <v>2853.11</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3696.900000</v>
+        <v>-3696.9</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>44650.648080</v>
+        <v>44650.648079999999</v>
       </c>
       <c r="CD8" s="1">
         <v>12.402958</v>
       </c>
       <c r="CE8" s="1">
-        <v>4282.250000</v>
+        <v>4282.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6041.530000</v>
+        <v>-6041.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>44476.375702</v>
+        <v>44476.375701999998</v>
       </c>
       <c r="B9" s="1">
         <v>12.354549</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.110000</v>
+        <v>1247.1099999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-283.567000</v>
+        <v>-283.56700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>44486.774329</v>
       </c>
       <c r="G9" s="1">
-        <v>12.357437</v>
+        <v>12.357436999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.980000</v>
+        <v>1269.98</v>
       </c>
       <c r="I9" s="1">
-        <v>-247.341000</v>
+        <v>-247.34100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>44497.232014</v>
+        <v>44497.232014000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.360342</v>
+        <v>12.360341999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N9" s="1">
-        <v>-195.361000</v>
+        <v>-195.36099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>44507.756588</v>
+        <v>44507.756587999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.363266</v>
+        <v>12.363265999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S9" s="1">
-        <v>-179.773000</v>
+        <v>-179.773</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>44518.242049</v>
@@ -2340,285 +2756,285 @@
         <v>12.366178</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.920000</v>
+        <v>1331.92</v>
       </c>
       <c r="X9" s="1">
-        <v>-168.404000</v>
+        <v>-168.404</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>44528.627280</v>
+        <v>44528.627280000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>12.369063</v>
+        <v>12.369063000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1350.300000</v>
+        <v>1350.3</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.841000</v>
+        <v>-167.84100000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>44539.200505</v>
+        <v>44539.200505000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.372000</v>
+        <v>12.372</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.740000</v>
+        <v>1363.74</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.012000</v>
+        <v>-178.012</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>44549.679447</v>
+        <v>44549.679447000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.374911</v>
+        <v>12.374911000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.810000</v>
+        <v>1384.81</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.393000</v>
+        <v>-208.393</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>44560.331031</v>
+        <v>44560.331031000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.377870</v>
+        <v>12.37787</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.381000</v>
+        <v>-252.381</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>44571.720696</v>
+        <v>44571.720695999997</v>
       </c>
       <c r="AU9" s="1">
         <v>12.381034</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.504000</v>
+        <v>-312.50400000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>44582.493275</v>
+        <v>44582.493275000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>12.384026</v>
       </c>
       <c r="BA9" s="1">
-        <v>1450.740000</v>
+        <v>1450.74</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.653000</v>
+        <v>-364.65300000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>44593.428107</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.387063</v>
+        <v>12.387062999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1536.100000</v>
+        <v>1536.1</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.082000</v>
+        <v>-613.08199999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>44604.538958</v>
+        <v>44604.538957999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.390150</v>
+        <v>12.39015</v>
       </c>
       <c r="BK9" s="1">
-        <v>1690.200000</v>
+        <v>1690.2</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1058.540000</v>
+        <v>-1058.54</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>44615.833887</v>
+        <v>44615.833887000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.393287</v>
+        <v>12.393287000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1983.830000</v>
+        <v>1983.83</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1830.660000</v>
+        <v>-1830.66</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>44628.266606</v>
+        <v>44628.266605999997</v>
       </c>
       <c r="BT9" s="1">
         <v>12.396741</v>
       </c>
       <c r="BU9" s="1">
-        <v>2372.520000</v>
+        <v>2372.52</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2721.170000</v>
+        <v>-2721.17</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>44639.255479</v>
+        <v>44639.255478999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.399793</v>
+        <v>12.399793000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2853.570000</v>
+        <v>2853.57</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3696.770000</v>
+        <v>-3696.77</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>44650.851408</v>
+        <v>44650.851408000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.403014</v>
+        <v>12.403014000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4280.170000</v>
+        <v>4280.17</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6041.850000</v>
+        <v>-6041.85</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>44476.724391</v>
+        <v>44476.724391000003</v>
       </c>
       <c r="B10" s="1">
-        <v>12.354646</v>
+        <v>12.354646000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.850000</v>
+        <v>1246.8499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-283.397000</v>
+        <v>-283.39699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>44487.367857</v>
+        <v>44487.367856999997</v>
       </c>
       <c r="G10" s="1">
         <v>12.357602</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.770000</v>
+        <v>1268.77</v>
       </c>
       <c r="I10" s="1">
-        <v>-248.063000</v>
+        <v>-248.06299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>44497.653118</v>
+        <v>44497.653118000002</v>
       </c>
       <c r="L10" s="1">
-        <v>12.360459</v>
+        <v>12.360459000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.410000</v>
+        <v>1305.4100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-194.893000</v>
+        <v>-194.893</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>44508.048237</v>
+        <v>44508.048237000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>12.363347</v>
+        <v>12.363346999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.830000</v>
+        <v>1317.83</v>
       </c>
       <c r="S10" s="1">
-        <v>-179.826000</v>
+        <v>-179.82599999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>44518.518783</v>
       </c>
       <c r="V10" s="1">
-        <v>12.366255</v>
+        <v>12.366255000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.870000</v>
+        <v>1331.87</v>
       </c>
       <c r="X10" s="1">
-        <v>-168.394000</v>
+        <v>-168.39400000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>44528.975969</v>
+        <v>44528.975968999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.369160</v>
+        <v>12.369160000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1350.230000</v>
+        <v>1350.23</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.896000</v>
+        <v>-167.89599999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>44539.542706</v>
@@ -2627,195 +3043,195 @@
         <v>12.372095</v>
       </c>
       <c r="AG10" s="1">
-        <v>1363.690000</v>
+        <v>1363.69</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.024000</v>
+        <v>-178.024</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>44550.031110</v>
+        <v>44550.031110000004</v>
       </c>
       <c r="AK10" s="1">
         <v>12.375009</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.830000</v>
+        <v>1384.83</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.375000</v>
+        <v>-208.375</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>44561.053238</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.378070</v>
+        <v>12.378069999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.409000</v>
+        <v>-252.40899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>44572.115976</v>
+        <v>44572.115976000001</v>
       </c>
       <c r="AU10" s="1">
         <v>12.381143</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.430000</v>
+        <v>1431.43</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.482000</v>
+        <v>-312.48200000000003</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>44582.856389</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.384127</v>
+        <v>12.384126999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.613000</v>
+        <v>-364.613</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>44593.787707</v>
+        <v>44593.787707000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>12.387163</v>
+        <v>12.387162999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1536.090000</v>
+        <v>1536.09</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.013000</v>
+        <v>-613.01300000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>44605.224959</v>
+        <v>44605.224958999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.390340</v>
+        <v>12.39034</v>
       </c>
       <c r="BK10" s="1">
-        <v>1690.120000</v>
+        <v>1690.12</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1058.480000</v>
+        <v>-1058.48</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>44616.566941</v>
+        <v>44616.566940999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>12.393491</v>
+        <v>12.393490999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1983.850000</v>
+        <v>1983.85</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1830.660000</v>
+        <v>-1830.66</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>44628.382663</v>
+        <v>44628.382662999997</v>
       </c>
       <c r="BT10" s="1">
         <v>12.396773</v>
       </c>
       <c r="BU10" s="1">
-        <v>2372.020000</v>
+        <v>2372.02</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2720.350000</v>
+        <v>-2720.35</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>44639.678062</v>
+        <v>44639.678061999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.399911</v>
+        <v>12.399910999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.480000</v>
+        <v>2853.48</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3696.040000</v>
+        <v>-3696.04</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>44651.368751</v>
+        <v>44651.368751000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>12.403158</v>
+        <v>12.403157999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4266.290000</v>
+        <v>4266.29</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6041.010000</v>
+        <v>-6041.01</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>44477.147973</v>
+        <v>44477.147972999999</v>
       </c>
       <c r="B11" s="1">
         <v>12.354763</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.110000</v>
+        <v>1247.1099999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-283.821000</v>
+        <v>-283.82100000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>44487.478649</v>
+        <v>44487.478648999997</v>
       </c>
       <c r="G11" s="1">
         <v>12.357633</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.430000</v>
+        <v>1269.43</v>
       </c>
       <c r="I11" s="1">
-        <v>-247.764000</v>
+        <v>-247.76400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>44497.925917</v>
@@ -2824,28 +3240,28 @@
         <v>12.360535</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.030000</v>
+        <v>1305.03</v>
       </c>
       <c r="N11" s="1">
-        <v>-195.298000</v>
+        <v>-195.298</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>44508.397420</v>
+        <v>44508.397420000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.363444</v>
+        <v>12.363443999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.820000</v>
+        <v>1317.82</v>
       </c>
       <c r="S11" s="1">
-        <v>-179.755000</v>
+        <v>-179.755</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>44518.863503</v>
@@ -2854,88 +3270,88 @@
         <v>12.366351</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.860000</v>
+        <v>1331.86</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.498000</v>
+        <v>-168.49799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>44529.325147</v>
+        <v>44529.325147000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.369257</v>
+        <v>12.369256999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1350.220000</v>
+        <v>1350.22</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.673000</v>
+        <v>-167.673</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>44540.227186</v>
+        <v>44540.227185999996</v>
       </c>
       <c r="AF11" s="1">
         <v>12.372285</v>
       </c>
       <c r="AG11" s="1">
-        <v>1363.720000</v>
+        <v>1363.72</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.092000</v>
+        <v>-178.09200000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>44550.723029</v>
+        <v>44550.723029000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>12.375201</v>
+        <v>12.375201000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.800000</v>
+        <v>1384.8</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.346000</v>
+        <v>-208.346</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>44561.410331</v>
+        <v>44561.410330999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.378170</v>
+        <v>12.378170000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.410000</v>
+        <v>-252.41</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>44572.481527</v>
+        <v>44572.481527000004</v>
       </c>
       <c r="AU11" s="1">
         <v>12.381245</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.380000</v>
+        <v>1431.38</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.474000</v>
+        <v>-312.47399999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>44583.212969</v>
@@ -2944,43 +3360,43 @@
         <v>12.384226</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.637000</v>
+        <v>-364.637</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>44594.466202</v>
+        <v>44594.466202000003</v>
       </c>
       <c r="BE11" s="1">
         <v>12.387352</v>
       </c>
       <c r="BF11" s="1">
-        <v>1536.120000</v>
+        <v>1536.12</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.063000</v>
+        <v>-613.06299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>44605.664381</v>
+        <v>44605.664381000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.390462</v>
+        <v>12.390461999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1690.170000</v>
+        <v>1690.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1058.540000</v>
+        <v>-1058.54</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>44617.085756</v>
@@ -2989,105 +3405,105 @@
         <v>12.393635</v>
       </c>
       <c r="BP11" s="1">
-        <v>1983.900000</v>
+        <v>1983.9</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1830.530000</v>
+        <v>-1830.53</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>44628.826060</v>
+        <v>44628.826059999999</v>
       </c>
       <c r="BT11" s="1">
         <v>12.396896</v>
       </c>
       <c r="BU11" s="1">
-        <v>2371.580000</v>
+        <v>2371.58</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2719.730000</v>
+        <v>-2719.73</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>44640.101615</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.400028</v>
+        <v>12.400028000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2852.860000</v>
+        <v>2852.86</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3696.620000</v>
+        <v>-3696.62</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>44651.958486</v>
+        <v>44651.958486000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.403322</v>
+        <v>12.403321999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4280.560000</v>
+        <v>4280.5600000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6042.460000</v>
+        <v>-6042.46</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>44477.427717</v>
+        <v>44477.427716999999</v>
       </c>
       <c r="B12" s="1">
         <v>12.354841</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.890000</v>
+        <v>1246.8900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-283.364000</v>
+        <v>-283.36399999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>44487.809015</v>
+        <v>44487.809014999999</v>
       </c>
       <c r="G12" s="1">
         <v>12.357725</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.190000</v>
+        <v>1270.19</v>
       </c>
       <c r="I12" s="1">
-        <v>-248.373000</v>
+        <v>-248.37299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>44498.272585</v>
+        <v>44498.272584999999</v>
       </c>
       <c r="L12" s="1">
         <v>12.360631</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.430000</v>
+        <v>1305.43</v>
       </c>
       <c r="N12" s="1">
-        <v>-195.030000</v>
+        <v>-195.03</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>44508.747099</v>
@@ -3096,360 +3512,360 @@
         <v>12.363541</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.750000</v>
+        <v>1317.75</v>
       </c>
       <c r="S12" s="1">
-        <v>-179.871000</v>
+        <v>-179.87100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>44519.203757</v>
+        <v>44519.203757000003</v>
       </c>
       <c r="V12" s="1">
-        <v>12.366445</v>
+        <v>12.366445000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.900000</v>
+        <v>1331.9</v>
       </c>
       <c r="X12" s="1">
-        <v>-168.406000</v>
+        <v>-168.40600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>44530.022001</v>
+        <v>44530.022000999998</v>
       </c>
       <c r="AA12" s="1">
         <v>12.369451</v>
       </c>
       <c r="AB12" s="1">
-        <v>1350.190000</v>
+        <v>1350.19</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.753000</v>
+        <v>-167.75299999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>44540.569955</v>
+        <v>44540.569954999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.372381</v>
+        <v>12.372381000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1363.680000</v>
+        <v>1363.68</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.013000</v>
+        <v>-178.01300000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>44551.076207</v>
+        <v>44551.076206999998</v>
       </c>
       <c r="AK12" s="1">
         <v>12.375299</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.800000</v>
+        <v>1384.8</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.392000</v>
+        <v>-208.392</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>44561.771415</v>
+        <v>44561.771415000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.378270</v>
+        <v>12.378270000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.399000</v>
+        <v>-252.399</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>44573.164022</v>
+        <v>44573.164021999997</v>
       </c>
       <c r="AU12" s="1">
         <v>12.381434</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.400000</v>
+        <v>1431.4</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.476000</v>
+        <v>-312.476</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>44583.890041</v>
+        <v>44583.890040999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.384414</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.647000</v>
+        <v>-364.64699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>44594.897226</v>
+        <v>44594.897226000001</v>
       </c>
       <c r="BE12" s="1">
         <v>12.387471</v>
       </c>
       <c r="BF12" s="1">
-        <v>1536.090000</v>
+        <v>1536.09</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.083000</v>
+        <v>-613.08299999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>44606.040844</v>
+        <v>44606.040844000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>12.390567</v>
+        <v>12.390567000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1690.200000</v>
+        <v>1690.2</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1058.480000</v>
+        <v>-1058.48</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>44617.495961</v>
+        <v>44617.495961000001</v>
       </c>
       <c r="BO12" s="1">
         <v>12.393749</v>
       </c>
       <c r="BP12" s="1">
-        <v>1983.800000</v>
+        <v>1983.8</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1830.570000</v>
+        <v>-1830.57</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>44629.236748</v>
+        <v>44629.236748000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>12.397010</v>
+        <v>12.39701</v>
       </c>
       <c r="BU12" s="1">
-        <v>2371.030000</v>
+        <v>2371.0300000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2720.080000</v>
+        <v>-2720.08</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>44640.518782</v>
+        <v>44640.518781999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.400144</v>
+        <v>12.400143999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2853.840000</v>
+        <v>2853.84</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3696.990000</v>
+        <v>-3696.99</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>44652.424222</v>
+        <v>44652.424222000001</v>
       </c>
       <c r="CD12" s="1">
         <v>12.403451</v>
       </c>
       <c r="CE12" s="1">
-        <v>4280.600000</v>
+        <v>4280.6000000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6038.150000</v>
+        <v>-6038.15</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>44477.770452</v>
+        <v>44477.770451999997</v>
       </c>
       <c r="B13" s="1">
         <v>12.354936</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.180000</v>
+        <v>1247.18</v>
       </c>
       <c r="D13" s="1">
-        <v>-283.586000</v>
+        <v>-283.58600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>44488.155220</v>
+        <v>44488.155220000001</v>
       </c>
       <c r="G13" s="1">
         <v>12.357821</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.210000</v>
+        <v>1269.21</v>
       </c>
       <c r="I13" s="1">
-        <v>-247.848000</v>
+        <v>-247.84800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>44498.615849</v>
+        <v>44498.615849000002</v>
       </c>
       <c r="L13" s="1">
-        <v>12.360727</v>
+        <v>12.360727000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.350000</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-195.419000</v>
+        <v>-195.41900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>44509.442987</v>
+        <v>44509.442987000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.363734</v>
+        <v>12.363733999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.730000</v>
+        <v>1317.73</v>
       </c>
       <c r="S13" s="1">
-        <v>-179.862000</v>
+        <v>-179.86199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>44519.909069</v>
+        <v>44519.909069000001</v>
       </c>
       <c r="V13" s="1">
         <v>12.366641</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="X13" s="1">
-        <v>-168.496000</v>
+        <v>-168.49600000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>44530.369199</v>
+        <v>44530.369199000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.369547</v>
+        <v>12.369547000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1350.140000</v>
+        <v>1350.14</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.693000</v>
+        <v>-167.69300000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>44540.916129</v>
+        <v>44540.916128999997</v>
       </c>
       <c r="AF13" s="1">
         <v>12.372477</v>
       </c>
       <c r="AG13" s="1">
-        <v>1363.720000</v>
+        <v>1363.72</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.019000</v>
+        <v>-178.01900000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>44551.419909</v>
+        <v>44551.419908999997</v>
       </c>
       <c r="AK13" s="1">
         <v>12.375394</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.840000</v>
+        <v>1384.84</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.356000</v>
+        <v>-208.35599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>44562.446504</v>
       </c>
       <c r="AP13" s="1">
-        <v>12.378457</v>
+        <v>12.378456999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.730000</v>
+        <v>1406.73</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.389000</v>
+        <v>-252.38900000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>44573.608438</v>
+        <v>44573.608438000003</v>
       </c>
       <c r="AU13" s="1">
         <v>12.381558</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.460000</v>
+        <v>1431.46</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.478000</v>
+        <v>-312.47800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>44584.289783</v>
@@ -3458,285 +3874,285 @@
         <v>12.384525</v>
       </c>
       <c r="BA13" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.625000</v>
+        <v>-364.625</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>44595.256858</v>
+        <v>44595.256858000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.387571</v>
+        <v>12.387570999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1536.090000</v>
+        <v>1536.09</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.021000</v>
+        <v>-613.02099999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>44606.413384</v>
+        <v>44606.413383999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.390670</v>
+        <v>12.39067</v>
       </c>
       <c r="BK13" s="1">
-        <v>1690.130000</v>
+        <v>1690.13</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1058.440000</v>
+        <v>-1058.44</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>44617.900219</v>
+        <v>44617.900219000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.393861</v>
+        <v>12.393860999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1983.850000</v>
+        <v>1983.85</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1830.610000</v>
+        <v>-1830.61</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>44629.665818</v>
+        <v>44629.665818000001</v>
       </c>
       <c r="BT13" s="1">
         <v>12.397129</v>
       </c>
       <c r="BU13" s="1">
-        <v>2370.140000</v>
+        <v>2370.14</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2719.600000</v>
+        <v>-2719.6</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>44640.967133</v>
+        <v>44640.967132999998</v>
       </c>
       <c r="BY13" s="1">
         <v>12.400269</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2853.280000</v>
+        <v>2853.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3696.490000</v>
+        <v>-3696.49</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>44652.944061</v>
+        <v>44652.944061000002</v>
       </c>
       <c r="CD13" s="1">
         <v>12.403596</v>
       </c>
       <c r="CE13" s="1">
-        <v>4263.130000</v>
+        <v>4263.13</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6042.170000</v>
+        <v>-6042.17</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>44478.114181</v>
+        <v>44478.114180999997</v>
       </c>
       <c r="B14" s="1">
         <v>12.355032</v>
       </c>
       <c r="C14" s="1">
-        <v>1246.860000</v>
+        <v>1246.8599999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-283.397000</v>
+        <v>-283.39699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>44488.843176</v>
+        <v>44488.843176000002</v>
       </c>
       <c r="G14" s="1">
         <v>12.358012</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.860000</v>
+        <v>1270.8599999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-247.925000</v>
+        <v>-247.92500000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>44499.304792</v>
+        <v>44499.304792000003</v>
       </c>
       <c r="L14" s="1">
         <v>12.360918</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-195.211000</v>
+        <v>-195.21100000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>44509.790683</v>
+        <v>44509.790682999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>12.363831</v>
+        <v>12.363830999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.720000</v>
+        <v>1317.72</v>
       </c>
       <c r="S14" s="1">
-        <v>-179.805000</v>
+        <v>-179.80500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>44520.233948</v>
+        <v>44520.233948000001</v>
       </c>
       <c r="V14" s="1">
-        <v>12.366732</v>
+        <v>12.366732000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.471000</v>
+        <v>-168.471</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>44530.718383</v>
+        <v>44530.718382999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.369644</v>
+        <v>12.369643999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1350.260000</v>
+        <v>1350.26</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.818000</v>
+        <v>-167.81800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>44541.578803</v>
+        <v>44541.578802999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>12.372661</v>
+        <v>12.372661000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1363.810000</v>
+        <v>1363.81</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.024000</v>
+        <v>-178.024</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>44552.087059</v>
+        <v>44552.087058999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.375580</v>
+        <v>12.375579999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.840000</v>
+        <v>1384.84</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.384000</v>
+        <v>-208.38399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>44562.883940</v>
+        <v>44562.88394</v>
       </c>
       <c r="AP14" s="1">
         <v>12.378579</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.400000</v>
+        <v>-252.4</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>44573.972005</v>
+        <v>44573.972005000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>12.381659</v>
+        <v>12.381659000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.390000</v>
+        <v>1431.39</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.463000</v>
+        <v>-312.46300000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>44584.676664</v>
+        <v>44584.676663999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.384632</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.639000</v>
+        <v>-364.63900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>44595.618441</v>
+        <v>44595.618440999999</v>
       </c>
       <c r="BE14" s="1">
         <v>12.387672</v>
       </c>
       <c r="BF14" s="1">
-        <v>1536.090000</v>
+        <v>1536.09</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.025000</v>
+        <v>-613.02499999999998</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>44606.847338</v>
@@ -3745,13 +4161,13 @@
         <v>12.390791</v>
       </c>
       <c r="BK14" s="1">
-        <v>1690.160000</v>
+        <v>1690.16</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1058.420000</v>
+        <v>-1058.42</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>44618.709658</v>
@@ -3760,225 +4176,225 @@
         <v>12.394086</v>
       </c>
       <c r="BP14" s="1">
-        <v>1983.780000</v>
+        <v>1983.78</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1830.590000</v>
+        <v>-1830.59</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>44630.096847</v>
+        <v>44630.096847000001</v>
       </c>
       <c r="BT14" s="1">
         <v>12.397249</v>
       </c>
       <c r="BU14" s="1">
-        <v>2369.430000</v>
+        <v>2369.4299999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2719.890000</v>
+        <v>-2719.89</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>44641.389260</v>
+        <v>44641.389260000004</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.400386</v>
+        <v>12.400385999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2853.100000</v>
+        <v>2853.1</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3696.550000</v>
+        <v>-3696.55</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>44653.460860</v>
+        <v>44653.460859999999</v>
       </c>
       <c r="CD14" s="1">
         <v>12.403739</v>
       </c>
       <c r="CE14" s="1">
-        <v>4272.290000</v>
+        <v>4272.29</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6057.820000</v>
+        <v>-6057.82</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>44478.793699</v>
+        <v>44478.793699000002</v>
       </c>
       <c r="B15" s="1">
-        <v>12.355220</v>
+        <v>12.355219999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.010000</v>
+        <v>1247.01</v>
       </c>
       <c r="D15" s="1">
-        <v>-283.557000</v>
+        <v>-283.55700000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>44489.189847</v>
+        <v>44489.189847000001</v>
       </c>
       <c r="G15" s="1">
         <v>12.358108</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.640000</v>
+        <v>1269.6400000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-249.650000</v>
+        <v>-249.65</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>44499.653945</v>
+        <v>44499.653944999998</v>
       </c>
       <c r="L15" s="1">
         <v>12.361015</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.360000</v>
+        <v>1305.3599999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-195.239000</v>
+        <v>-195.239</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>44510.140394</v>
+        <v>44510.140394000002</v>
       </c>
       <c r="Q15" s="1">
         <v>12.363928</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.800000</v>
+        <v>1317.8</v>
       </c>
       <c r="S15" s="1">
-        <v>-179.759000</v>
+        <v>-179.75899999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>44520.881589</v>
+        <v>44520.881588999997</v>
       </c>
       <c r="V15" s="1">
-        <v>12.366912</v>
+        <v>12.366911999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.800000</v>
+        <v>1331.8</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.494000</v>
+        <v>-168.494</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>44531.378558</v>
+        <v>44531.378557999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.369827</v>
+        <v>12.369827000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1350.370000</v>
+        <v>1350.37</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.784000</v>
+        <v>-167.78399999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>44541.945860</v>
+        <v>44541.94586</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.372763</v>
+        <v>12.372763000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1363.600000</v>
+        <v>1363.6</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.045000</v>
+        <v>-178.04499999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>44552.469940</v>
+        <v>44552.469940000003</v>
       </c>
       <c r="AK15" s="1">
         <v>12.375686</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.800000</v>
+        <v>1384.8</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.389000</v>
+        <v>-208.38900000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>44563.247046</v>
+        <v>44563.247045999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.378680</v>
+        <v>12.378679999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.409000</v>
+        <v>-252.40899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>44574.334580</v>
+        <v>44574.334580000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.381760</v>
+        <v>12.38176</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.400000</v>
+        <v>1431.4</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.501000</v>
+        <v>-312.50099999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>44585.051650</v>
+        <v>44585.051650000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>12.384737</v>
+        <v>12.384736999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.604000</v>
+        <v>-364.60399999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>44596.036538</v>
@@ -3987,58 +4403,58 @@
         <v>12.387788</v>
       </c>
       <c r="BF15" s="1">
-        <v>1536.080000</v>
+        <v>1536.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.067000</v>
+        <v>-613.06700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>44607.192059</v>
+        <v>44607.192059000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.390887</v>
+        <v>12.390886999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1690.200000</v>
+        <v>1690.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1058.460000</v>
+        <v>-1058.46</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>44619.103483</v>
+        <v>44619.103482999999</v>
       </c>
       <c r="BO15" s="1">
         <v>12.394195</v>
       </c>
       <c r="BP15" s="1">
-        <v>1983.700000</v>
+        <v>1983.7</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1830.510000</v>
+        <v>-1830.51</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>44630.506538</v>
+        <v>44630.506538000001</v>
       </c>
       <c r="BT15" s="1">
         <v>12.397363</v>
       </c>
       <c r="BU15" s="1">
-        <v>2368.790000</v>
+        <v>2368.79</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2719.870000</v>
+        <v>-2719.87</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>44641.822236</v>
@@ -4047,90 +4463,90 @@
         <v>12.400506</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.960000</v>
+        <v>2852.96</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3696.270000</v>
+        <v>-3696.27</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>44653.982653</v>
+        <v>44653.982652999999</v>
       </c>
       <c r="CD15" s="1">
         <v>12.403884</v>
       </c>
       <c r="CE15" s="1">
-        <v>4285.090000</v>
+        <v>4285.09</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6044.480000</v>
+        <v>-6044.48</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>44479.136930</v>
+        <v>44479.136930000001</v>
       </c>
       <c r="B16" s="1">
         <v>12.355316</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.780000</v>
+        <v>1246.78</v>
       </c>
       <c r="D16" s="1">
-        <v>-283.735000</v>
+        <v>-283.73500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>44489.532595</v>
+        <v>44489.532594999997</v>
       </c>
       <c r="G16" s="1">
         <v>12.358203</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="I16" s="1">
-        <v>-247.289000</v>
+        <v>-247.28899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>44500.001144</v>
+        <v>44500.001144000002</v>
       </c>
       <c r="L16" s="1">
-        <v>12.361111</v>
+        <v>12.361110999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.140000</v>
+        <v>1305.1400000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-195.105000</v>
+        <v>-195.10499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>44510.809961</v>
+        <v>44510.809960999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.364114</v>
+        <v>12.364114000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.870000</v>
+        <v>1317.87</v>
       </c>
       <c r="S16" s="1">
-        <v>-179.856000</v>
+        <v>-179.85599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>44521.264852</v>
@@ -4139,285 +4555,285 @@
         <v>12.367018</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.910000</v>
+        <v>1331.91</v>
       </c>
       <c r="X16" s="1">
-        <v>-168.403000</v>
+        <v>-168.40299999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>44531.761965</v>
+        <v>44531.761964999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>12.369934</v>
+        <v>12.369934000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1350.370000</v>
+        <v>1350.37</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.817000</v>
+        <v>-167.81700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>44542.289552</v>
+        <v>44542.289552000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.372858</v>
+        <v>12.372858000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1363.710000</v>
+        <v>1363.71</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.240000</v>
+        <v>-178.24</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>44552.817137</v>
+        <v>44552.817136999998</v>
       </c>
       <c r="AK16" s="1">
         <v>12.375783</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.800000</v>
+        <v>1384.8</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.392000</v>
+        <v>-208.392</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>44563.605124</v>
+        <v>44563.605124000002</v>
       </c>
       <c r="AP16" s="1">
         <v>12.378779</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.401000</v>
+        <v>-252.40100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>44574.762661</v>
+        <v>44574.762661000001</v>
       </c>
       <c r="AU16" s="1">
         <v>12.381879</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.466000</v>
+        <v>-312.46600000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>44585.751034</v>
+        <v>44585.751034000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.384931</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.608000</v>
+        <v>-364.608</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>44596.341084</v>
       </c>
       <c r="BE16" s="1">
-        <v>12.387873</v>
+        <v>12.387873000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1536.110000</v>
+        <v>1536.11</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.013000</v>
+        <v>-613.01300000000003</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>44607.568548</v>
+        <v>44607.568548000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>12.390991</v>
       </c>
       <c r="BK16" s="1">
-        <v>1690.160000</v>
+        <v>1690.16</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1058.410000</v>
+        <v>-1058.4100000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>44619.520649</v>
+        <v>44619.520648999998</v>
       </c>
       <c r="BO16" s="1">
         <v>12.394311</v>
       </c>
       <c r="BP16" s="1">
-        <v>1983.800000</v>
+        <v>1983.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1830.480000</v>
+        <v>-1830.48</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>44630.938527</v>
+        <v>44630.938526999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>12.397483</v>
+        <v>12.397482999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.750000</v>
+        <v>2368.75</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2720.470000</v>
+        <v>-2720.47</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>44642.262219</v>
+        <v>44642.262218999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.400628</v>
+        <v>12.400627999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.360000</v>
+        <v>2853.36</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3696.620000</v>
+        <v>-3696.62</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>44654.499493</v>
+        <v>44654.499493000003</v>
       </c>
       <c r="CD16" s="1">
         <v>12.404028</v>
       </c>
       <c r="CE16" s="1">
-        <v>4280.970000</v>
+        <v>4280.97</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6052.950000</v>
+        <v>-6052.95</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>44479.475699</v>
+        <v>44479.475699000002</v>
       </c>
       <c r="B17" s="1">
-        <v>12.355410</v>
+        <v>12.355409999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1246.940000</v>
+        <v>1246.94</v>
       </c>
       <c r="D17" s="1">
-        <v>-283.471000</v>
+        <v>-283.471</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>44490.191267</v>
+        <v>44490.191267000002</v>
       </c>
       <c r="G17" s="1">
-        <v>12.358386</v>
+        <v>12.358385999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.830000</v>
+        <v>1269.83</v>
       </c>
       <c r="I17" s="1">
-        <v>-248.210000</v>
+        <v>-248.21</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>44500.654871</v>
+        <v>44500.654870999999</v>
       </c>
       <c r="L17" s="1">
         <v>12.361293</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N17" s="1">
-        <v>-195.341000</v>
+        <v>-195.34100000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>44511.186952</v>
+        <v>44511.186951999996</v>
       </c>
       <c r="Q17" s="1">
         <v>12.364219</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S17" s="1">
-        <v>-179.857000</v>
+        <v>-179.857</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>44521.610346</v>
+        <v>44521.610346000001</v>
       </c>
       <c r="V17" s="1">
-        <v>12.367114</v>
+        <v>12.367114000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.870000</v>
+        <v>1331.87</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.413000</v>
+        <v>-168.41300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>44532.112637</v>
+        <v>44532.112636999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.370031</v>
+        <v>12.370031000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1350.290000</v>
+        <v>1350.29</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.823000</v>
+        <v>-167.82300000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>44542.641247</v>
@@ -4426,270 +4842,270 @@
         <v>12.372956</v>
       </c>
       <c r="AG17" s="1">
-        <v>1363.730000</v>
+        <v>1363.73</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.040000</v>
+        <v>-178.04</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>44553.241218</v>
+        <v>44553.241218000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.375900</v>
+        <v>12.3759</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.770000</v>
+        <v>1384.77</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.360000</v>
+        <v>-208.36</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>44564.031218</v>
+        <v>44564.031217999996</v>
       </c>
       <c r="AP17" s="1">
         <v>12.378898</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.420000</v>
+        <v>-252.42</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>44575.068660</v>
+        <v>44575.068659999997</v>
       </c>
       <c r="AU17" s="1">
         <v>12.381964</v>
       </c>
       <c r="AV17" s="1">
-        <v>1431.400000</v>
+        <v>1431.4</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.472000</v>
+        <v>-312.47199999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>44586.112117</v>
+        <v>44586.112116999997</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.385031</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.740000</v>
+        <v>1450.74</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.643000</v>
+        <v>-364.64299999999997</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>44596.700711</v>
+        <v>44596.700710999998</v>
       </c>
       <c r="BE17" s="1">
         <v>12.387972</v>
       </c>
       <c r="BF17" s="1">
-        <v>1536.060000</v>
+        <v>1536.06</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.030000</v>
+        <v>-613.03</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>44607.942544</v>
+        <v>44607.942543999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.391095</v>
       </c>
       <c r="BK17" s="1">
-        <v>1690.120000</v>
+        <v>1690.12</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1058.470000</v>
+        <v>-1058.47</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>44620.335048</v>
+        <v>44620.335048000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.394538</v>
+        <v>12.394538000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1983.860000</v>
+        <v>1983.86</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1830.480000</v>
+        <v>-1830.48</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>44631.372559</v>
+        <v>44631.372559000003</v>
       </c>
       <c r="BT17" s="1">
         <v>12.397603</v>
       </c>
       <c r="BU17" s="1">
-        <v>2367.980000</v>
+        <v>2367.98</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2720.910000</v>
+        <v>-2720.91</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>44642.691226</v>
+        <v>44642.691226000003</v>
       </c>
       <c r="BY17" s="1">
         <v>12.400748</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2853.820000</v>
+        <v>2853.82</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3696.180000</v>
+        <v>-3696.18</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>44655.051530</v>
+        <v>44655.051529999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.404181</v>
+        <v>12.404180999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4271.360000</v>
+        <v>4271.3599999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6057.890000</v>
+        <v>-6057.89</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>44480.128931</v>
+        <v>44480.128930999999</v>
       </c>
       <c r="B18" s="1">
         <v>12.355591</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.110000</v>
+        <v>1247.1099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-283.576000</v>
+        <v>-283.57600000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>44490.565780</v>
+        <v>44490.565779999997</v>
       </c>
       <c r="G18" s="1">
-        <v>12.358490</v>
+        <v>12.35849</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-247.651000</v>
+        <v>-247.65100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>44501.037285</v>
+        <v>44501.037284999999</v>
       </c>
       <c r="L18" s="1">
         <v>12.361399</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.190000</v>
+        <v>1305.19</v>
       </c>
       <c r="N18" s="1">
-        <v>-195.556000</v>
+        <v>-195.55600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>44511.536104</v>
+        <v>44511.536103999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>12.364316</v>
+        <v>12.364316000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.670000</v>
+        <v>1317.67</v>
       </c>
       <c r="S18" s="1">
-        <v>-179.877000</v>
+        <v>-179.87700000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>44521.951098</v>
+        <v>44521.951097999998</v>
       </c>
       <c r="V18" s="1">
-        <v>12.367209</v>
+        <v>12.367209000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.780000</v>
+        <v>1331.78</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.473000</v>
+        <v>-168.47300000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>44532.458844</v>
+        <v>44532.458844000001</v>
       </c>
       <c r="AA18" s="1">
         <v>12.370127</v>
       </c>
       <c r="AB18" s="1">
-        <v>1350.310000</v>
+        <v>1350.31</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.648000</v>
+        <v>-167.648</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>44543.064799</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.373074</v>
+        <v>12.373074000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1363.690000</v>
+        <v>1363.69</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.124000</v>
+        <v>-178.124</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>44553.510575</v>
@@ -4698,345 +5114,345 @@
         <v>12.375975</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.790000</v>
+        <v>1384.79</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.408000</v>
+        <v>-208.40799999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>44564.327795</v>
+        <v>44564.327794999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.378980</v>
+        <v>12.37898</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.403000</v>
+        <v>-252.40299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>44575.429747</v>
+        <v>44575.429747000002</v>
       </c>
       <c r="AU18" s="1">
         <v>12.382064</v>
       </c>
       <c r="AV18" s="1">
-        <v>1431.400000</v>
+        <v>1431.4</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.484000</v>
+        <v>-312.48399999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>44586.471190</v>
+        <v>44586.471189999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.385131</v>
+        <v>12.385130999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.599000</v>
+        <v>-364.59899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>44597.064248</v>
+        <v>44597.064248000002</v>
       </c>
       <c r="BE18" s="1">
         <v>12.388073</v>
       </c>
       <c r="BF18" s="1">
-        <v>1536.100000</v>
+        <v>1536.1</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.039000</v>
+        <v>-613.03899999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>44608.693447</v>
+        <v>44608.693446999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>12.391304</v>
       </c>
       <c r="BK18" s="1">
-        <v>1690.210000</v>
+        <v>1690.21</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1058.440000</v>
+        <v>-1058.44</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>44620.755893</v>
+        <v>44620.755893000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.394654</v>
+        <v>12.394653999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1983.670000</v>
+        <v>1983.67</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1830.430000</v>
+        <v>-1830.43</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>44631.778281</v>
+        <v>44631.778280999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.397716</v>
+        <v>12.397716000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2367.880000</v>
+        <v>2367.88</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2721.580000</v>
+        <v>-2721.58</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>44643.116298</v>
+        <v>44643.116298000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.400866</v>
+        <v>12.400866000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2853.320000</v>
+        <v>2853.32</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3695.760000</v>
+        <v>-3695.76</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>44655.896248</v>
+        <v>44655.896247999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.404416</v>
+        <v>12.404415999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4284.710000</v>
+        <v>4284.71</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6045.510000</v>
+        <v>-6045.51</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>44480.503410</v>
+        <v>44480.503409999998</v>
       </c>
       <c r="B19" s="1">
-        <v>12.355695</v>
+        <v>12.355695000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.100000</v>
+        <v>1247.0999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-283.342000</v>
+        <v>-283.34199999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>44490.909475</v>
       </c>
       <c r="G19" s="1">
-        <v>12.358586</v>
+        <v>12.358586000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.620000</v>
+        <v>1269.6199999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-248.261000</v>
+        <v>-248.261</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>44501.383379</v>
+        <v>44501.383378999999</v>
       </c>
       <c r="L19" s="1">
         <v>12.361495</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-195.388000</v>
+        <v>-195.38800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>44511.882486</v>
+        <v>44511.882486000002</v>
       </c>
       <c r="Q19" s="1">
         <v>12.364412</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.750000</v>
+        <v>1317.75</v>
       </c>
       <c r="S19" s="1">
-        <v>-179.783000</v>
+        <v>-179.78299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>44522.376169</v>
+        <v>44522.376169000003</v>
       </c>
       <c r="V19" s="1">
         <v>12.367327</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.830000</v>
+        <v>1331.83</v>
       </c>
       <c r="X19" s="1">
-        <v>-168.492000</v>
+        <v>-168.49199999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>44532.878002</v>
+        <v>44532.878001999998</v>
       </c>
       <c r="AA19" s="1">
         <v>12.370244</v>
       </c>
       <c r="AB19" s="1">
-        <v>1350.280000</v>
+        <v>1350.28</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.784000</v>
+        <v>-167.78399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>44543.343551</v>
+        <v>44543.343550999998</v>
       </c>
       <c r="AF19" s="1">
         <v>12.373151</v>
       </c>
       <c r="AG19" s="1">
-        <v>1363.720000</v>
+        <v>1363.72</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.883000</v>
+        <v>-177.88300000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>44553.862056</v>
+        <v>44553.862055999998</v>
       </c>
       <c r="AK19" s="1">
         <v>12.376073</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.790000</v>
+        <v>1384.79</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.403000</v>
+        <v>-208.40299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>44564.687397</v>
+        <v>44564.687397000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.379080</v>
+        <v>12.37908</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.408000</v>
+        <v>-252.40799999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>44575.796291</v>
+        <v>44575.796290999999</v>
       </c>
       <c r="AU19" s="1">
         <v>12.382166</v>
       </c>
       <c r="AV19" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.468000</v>
+        <v>-312.46800000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>44587.188406</v>
+        <v>44587.188406000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>12.385330</v>
+        <v>12.38533</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.618000</v>
+        <v>-364.61799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>44597.782950</v>
+        <v>44597.782950000001</v>
       </c>
       <c r="BE19" s="1">
         <v>12.388273</v>
       </c>
       <c r="BF19" s="1">
-        <v>1536.060000</v>
+        <v>1536.06</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.039000</v>
+        <v>-613.03899999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>44609.068423</v>
+        <v>44609.068422999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>12.391408</v>
       </c>
       <c r="BK19" s="1">
-        <v>1690.130000</v>
+        <v>1690.13</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1058.390000</v>
+        <v>-1058.3900000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>44621.149975</v>
@@ -5045,347 +5461,347 @@
         <v>12.394764</v>
       </c>
       <c r="BP19" s="1">
-        <v>1983.830000</v>
+        <v>1983.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1830.410000</v>
+        <v>-1830.41</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>44632.207821</v>
+        <v>44632.207821000004</v>
       </c>
       <c r="BT19" s="1">
         <v>12.397836</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.520000</v>
+        <v>2367.52</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2722.010000</v>
+        <v>-2722.01</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>44643.851368</v>
+        <v>44643.851368000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.401070</v>
+        <v>12.401070000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.920000</v>
+        <v>2852.92</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3695.980000</v>
+        <v>-3695.98</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>44656.132313</v>
+        <v>44656.132313000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.404481</v>
+        <v>12.404481000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4271.370000</v>
+        <v>4271.37</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6034.530000</v>
+        <v>-6034.53</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>44480.847666</v>
+        <v>44480.847666000001</v>
       </c>
       <c r="B20" s="1">
         <v>12.355791</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="D20" s="1">
-        <v>-283.460000</v>
+        <v>-283.45999999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>44491.257667</v>
+        <v>44491.257666999998</v>
       </c>
       <c r="G20" s="1">
-        <v>12.358683</v>
+        <v>12.358682999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-248.709000</v>
+        <v>-248.709</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>44501.727221</v>
+        <v>44501.727221000001</v>
       </c>
       <c r="L20" s="1">
-        <v>12.361591</v>
+        <v>12.361591000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="N20" s="1">
-        <v>-195.312000</v>
+        <v>-195.31200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>44512.290055</v>
+        <v>44512.290054999998</v>
       </c>
       <c r="Q20" s="1">
         <v>12.364525</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S20" s="1">
-        <v>-179.756000</v>
+        <v>-179.756</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>44522.663353</v>
+        <v>44522.663353000004</v>
       </c>
       <c r="V20" s="1">
-        <v>12.367406</v>
+        <v>12.367406000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="X20" s="1">
-        <v>-168.298000</v>
+        <v>-168.298</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>44533.171099</v>
+        <v>44533.171098999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.370325</v>
+        <v>12.370324999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1350.300000</v>
+        <v>1350.3</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.914000</v>
+        <v>-167.91399999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>44543.686781</v>
+        <v>44543.686780999997</v>
       </c>
       <c r="AF20" s="1">
         <v>12.373246</v>
       </c>
       <c r="AG20" s="1">
-        <v>1363.740000</v>
+        <v>1363.74</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.202000</v>
+        <v>-178.202</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44554.209940</v>
+        <v>44554.209940000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.376169</v>
+        <v>12.376169000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.790000</v>
+        <v>1384.79</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.382000</v>
+        <v>-208.38200000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>44565.047985</v>
+        <v>44565.047984999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.379180</v>
+        <v>12.37918</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.398000</v>
+        <v>-252.398</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>44576.521938</v>
+        <v>44576.521937999998</v>
       </c>
       <c r="AU20" s="1">
         <v>12.382367</v>
       </c>
       <c r="AV20" s="1">
-        <v>1431.380000</v>
+        <v>1431.38</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.461000</v>
+        <v>-312.46100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>44587.547045</v>
+        <v>44587.547044999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.385430</v>
+        <v>12.385429999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.614000</v>
+        <v>-364.61399999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>44598.147015</v>
+        <v>44598.147015000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.388374</v>
+        <v>12.388374000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1536.100000</v>
+        <v>1536.1</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.039000</v>
+        <v>-613.03899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>44609.442902</v>
+        <v>44609.442902000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.391512</v>
+        <v>12.391512000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1690.160000</v>
+        <v>1690.16</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1058.370000</v>
+        <v>-1058.3699999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>44621.883098</v>
+        <v>44621.883097999998</v>
       </c>
       <c r="BO20" s="1">
         <v>12.394968</v>
       </c>
       <c r="BP20" s="1">
-        <v>1983.820000</v>
+        <v>1983.82</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1830.350000</v>
+        <v>-1830.35</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>44632.944840</v>
+        <v>44632.944839999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>12.398040</v>
+        <v>12.39804</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.940000</v>
+        <v>2367.94</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2722.380000</v>
+        <v>-2722.38</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>44643.961978</v>
+        <v>44643.961977999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>12.401101</v>
+        <v>12.401101000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.760000</v>
+        <v>2852.76</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3696.330000</v>
+        <v>-3696.33</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>44656.670008</v>
+        <v>44656.670008000001</v>
       </c>
       <c r="CD20" s="1">
         <v>12.404631</v>
       </c>
       <c r="CE20" s="1">
-        <v>4265.690000</v>
+        <v>4265.6899999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6056.030000</v>
+        <v>-6056.03</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>44481.186930</v>
+        <v>44481.186930000003</v>
       </c>
       <c r="B21" s="1">
-        <v>12.355885</v>
+        <v>12.355885000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.360000</v>
+        <v>1247.3599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-283.642000</v>
+        <v>-283.642</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>44491.685218</v>
+        <v>44491.685217999999</v>
       </c>
       <c r="G21" s="1">
         <v>12.358801</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.210000</v>
+        <v>1269.21</v>
       </c>
       <c r="I21" s="1">
-        <v>-247.979000</v>
+        <v>-247.97900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>44502.158742</v>
@@ -5394,103 +5810,103 @@
         <v>12.361711</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.080000</v>
+        <v>1305.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-195.380000</v>
+        <v>-195.38</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>44512.592619</v>
+        <v>44512.592619000003</v>
       </c>
       <c r="Q21" s="1">
         <v>12.364609</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.720000</v>
+        <v>1317.72</v>
       </c>
       <c r="S21" s="1">
-        <v>-179.741000</v>
+        <v>-179.74100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>44523.008569</v>
+        <v>44523.008568999998</v>
       </c>
       <c r="V21" s="1">
         <v>12.367502</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.860000</v>
+        <v>1331.86</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.311000</v>
+        <v>-168.31100000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>44533.519290</v>
+        <v>44533.519289999997</v>
       </c>
       <c r="AA21" s="1">
         <v>12.370422</v>
       </c>
       <c r="AB21" s="1">
-        <v>1350.190000</v>
+        <v>1350.19</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.791000</v>
+        <v>-167.791</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>44544.030013</v>
+        <v>44544.030013000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.373342</v>
+        <v>12.373341999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1363.720000</v>
+        <v>1363.72</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.070000</v>
+        <v>-178.07</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>44554.908796</v>
+        <v>44554.908796000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.376364</v>
+        <v>12.376364000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.810000</v>
+        <v>1384.81</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.371000</v>
+        <v>-208.37100000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>44565.774624</v>
+        <v>44565.774623999998</v>
       </c>
       <c r="AP21" s="1">
         <v>12.379382</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.357000</v>
+        <v>-252.357</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>44576.913815</v>
@@ -5499,165 +5915,165 @@
         <v>12.382476</v>
       </c>
       <c r="AV21" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.469000</v>
+        <v>-312.46899999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>44587.904627</v>
+        <v>44587.904627000004</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.385529</v>
       </c>
       <c r="BA21" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.636000</v>
+        <v>-364.63600000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>44598.508101</v>
+        <v>44598.508100999999</v>
       </c>
       <c r="BE21" s="1">
         <v>12.388474</v>
       </c>
       <c r="BF21" s="1">
-        <v>1536.080000</v>
+        <v>1536.08</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.043000</v>
+        <v>-613.04300000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>44610.136309</v>
+        <v>44610.136309000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>12.391705</v>
       </c>
       <c r="BK21" s="1">
-        <v>1690.170000</v>
+        <v>1690.17</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1058.370000</v>
+        <v>-1058.3699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>44622.403861</v>
+        <v>44622.403860999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>12.395112</v>
+        <v>12.395111999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1983.810000</v>
+        <v>1983.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1830.400000</v>
+        <v>-1830.4</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>44633.081768</v>
+        <v>44633.081767999996</v>
       </c>
       <c r="BT21" s="1">
         <v>12.398078</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.790000</v>
+        <v>2367.79</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2723.370000</v>
+        <v>-2723.37</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>44644.409864</v>
+        <v>44644.409864000001</v>
       </c>
       <c r="BY21" s="1">
         <v>12.401225</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.990000</v>
+        <v>2852.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3696.620000</v>
+        <v>-3696.62</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>44657.206679</v>
+        <v>44657.206679000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.404780</v>
+        <v>12.404780000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4280.940000</v>
+        <v>4280.9399999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6036.830000</v>
+        <v>-6036.83</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>44481.608993</v>
+        <v>44481.608993000002</v>
       </c>
       <c r="B22" s="1">
         <v>12.356002</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.190000</v>
+        <v>1247.19</v>
       </c>
       <c r="D22" s="1">
-        <v>-283.628000</v>
+        <v>-283.62799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>44491.960003</v>
       </c>
       <c r="G22" s="1">
-        <v>12.358878</v>
+        <v>12.358878000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.880000</v>
+        <v>1269.8800000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-248.156000</v>
+        <v>-248.15600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>44502.441460</v>
+        <v>44502.441460000002</v>
       </c>
       <c r="L22" s="1">
         <v>12.361789</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N22" s="1">
-        <v>-195.162000</v>
+        <v>-195.16200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>44512.940316</v>
@@ -5666,193 +6082,193 @@
         <v>12.364706</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.790000</v>
+        <v>1317.79</v>
       </c>
       <c r="S22" s="1">
-        <v>-179.818000</v>
+        <v>-179.81800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>44523.351832</v>
       </c>
       <c r="V22" s="1">
-        <v>12.367598</v>
+        <v>12.367597999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.840000</v>
+        <v>1331.84</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.238000</v>
+        <v>-168.238</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>44533.867979</v>
+        <v>44533.867979000002</v>
       </c>
       <c r="AA22" s="1">
         <v>12.370519</v>
       </c>
       <c r="AB22" s="1">
-        <v>1350.270000</v>
+        <v>1350.27</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.826000</v>
+        <v>-167.82599999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>44544.717469</v>
+        <v>44544.717469000003</v>
       </c>
       <c r="AF22" s="1">
         <v>12.373533</v>
       </c>
       <c r="AG22" s="1">
-        <v>1363.710000</v>
+        <v>1363.71</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.122000</v>
+        <v>-178.12200000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>44555.258447</v>
       </c>
       <c r="AK22" s="1">
-        <v>12.376461</v>
+        <v>12.376461000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.780000</v>
+        <v>1384.78</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.362000</v>
+        <v>-208.36199999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>44566.155087</v>
+        <v>44566.155086999999</v>
       </c>
       <c r="AP22" s="1">
         <v>12.379488</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.379000</v>
+        <v>-252.37899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>44577.279328</v>
+        <v>44577.279327999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>12.382578</v>
+        <v>12.382578000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1431.380000</v>
+        <v>1431.38</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.457000</v>
+        <v>-312.45699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>44588.575390</v>
+        <v>44588.575389999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>12.385715</v>
+        <v>12.385714999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.594000</v>
+        <v>-364.59399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>44599.179189</v>
+        <v>44599.179189000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.388661</v>
+        <v>12.388661000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1536.040000</v>
+        <v>1536.04</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.020000</v>
+        <v>-613.02</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>44610.568821</v>
+        <v>44610.568821000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>12.391825</v>
+        <v>12.391825000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1690.160000</v>
+        <v>1690.16</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1058.330000</v>
+        <v>-1058.33</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>44622.812566</v>
+        <v>44622.812566000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.395226</v>
+        <v>12.395225999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1983.860000</v>
+        <v>1983.86</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1830.320000</v>
+        <v>-1830.32</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>44633.492918</v>
+        <v>44633.492918000004</v>
       </c>
       <c r="BT22" s="1">
         <v>12.398192</v>
       </c>
       <c r="BU22" s="1">
-        <v>2368.340000</v>
+        <v>2368.34</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2723.500000</v>
+        <v>-2723.5</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>44644.841915</v>
+        <v>44644.841914999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.401345</v>
+        <v>12.401344999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.980000</v>
+        <v>2852.98</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3695.320000</v>
+        <v>-3695.32</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>44657.742328</v>
@@ -5861,165 +6277,165 @@
         <v>12.404928</v>
       </c>
       <c r="CE22" s="1">
-        <v>4263.220000</v>
+        <v>4263.22</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6044.870000</v>
+        <v>-6044.87</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>44481.886751</v>
+        <v>44481.886750999998</v>
       </c>
       <c r="B23" s="1">
-        <v>12.356080</v>
+        <v>12.35608</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-283.579000</v>
+        <v>-283.57900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>44492.304723</v>
+        <v>44492.304723000001</v>
       </c>
       <c r="G23" s="1">
         <v>12.358974</v>
       </c>
       <c r="H23" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I23" s="1">
-        <v>-248.724000</v>
+        <v>-248.72399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>44502.783700</v>
+        <v>44502.7837</v>
       </c>
       <c r="L23" s="1">
         <v>12.361884</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.060000</v>
+        <v>1305.06</v>
       </c>
       <c r="N23" s="1">
-        <v>-195.398000</v>
+        <v>-195.398</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>44513.286982</v>
+        <v>44513.286981999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.364802</v>
+        <v>12.364801999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.730000</v>
+        <v>1317.73</v>
       </c>
       <c r="S23" s="1">
-        <v>-179.873000</v>
+        <v>-179.87299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>44524.038791</v>
+        <v>44524.038790999999</v>
       </c>
       <c r="V23" s="1">
         <v>12.367789</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.325000</v>
+        <v>-168.32499999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>44534.568362</v>
+        <v>44534.568361999998</v>
       </c>
       <c r="AA23" s="1">
         <v>12.370713</v>
       </c>
       <c r="AB23" s="1">
-        <v>1350.180000</v>
+        <v>1350.18</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.710000</v>
+        <v>-167.71</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>44545.058717</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.373627</v>
+        <v>12.373627000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.620000</v>
+        <v>1363.62</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.070000</v>
+        <v>-178.07</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>44555.601677</v>
+        <v>44555.601676999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.376556</v>
+        <v>12.376556000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.770000</v>
+        <v>1384.77</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.363000</v>
+        <v>-208.363</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>44566.517663</v>
+        <v>44566.517662999999</v>
       </c>
       <c r="AP23" s="1">
         <v>12.379588</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.384000</v>
+        <v>-252.38399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>44577.953887</v>
+        <v>44577.953887000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>12.382765</v>
+        <v>12.382764999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.400000</v>
+        <v>1431.4</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.457000</v>
+        <v>-312.45699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>44588.981969</v>
@@ -6028,43 +6444,43 @@
         <v>12.385828</v>
       </c>
       <c r="BA23" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.582000</v>
+        <v>-364.58199999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>44599.617652</v>
+        <v>44599.617652000001</v>
       </c>
       <c r="BE23" s="1">
         <v>12.388783</v>
       </c>
       <c r="BF23" s="1">
-        <v>1536.070000</v>
+        <v>1536.07</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.002000</v>
+        <v>-613.00199999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>44610.944294</v>
+        <v>44610.944294000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.391929</v>
+        <v>12.391928999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1690.150000</v>
+        <v>1690.15</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1058.350000</v>
+        <v>-1058.3499999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>44623.210884</v>
@@ -6073,105 +6489,105 @@
         <v>12.395336</v>
       </c>
       <c r="BP23" s="1">
-        <v>1983.680000</v>
+        <v>1983.68</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1830.240000</v>
+        <v>-1830.24</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>44633.922455</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.398312</v>
+        <v>12.398312000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2368.690000</v>
+        <v>2368.69</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2723.770000</v>
+        <v>-2723.77</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>44645.261528</v>
+        <v>44645.261528000003</v>
       </c>
       <c r="BY23" s="1">
         <v>12.401462</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.740000</v>
+        <v>2852.74</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3695.830000</v>
+        <v>-3695.83</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>44658.286935</v>
+        <v>44658.286934999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.405080</v>
+        <v>12.40508</v>
       </c>
       <c r="CE23" s="1">
-        <v>4279.510000</v>
+        <v>4279.51</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6052.910000</v>
+        <v>-6052.91</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>44482.227502</v>
+        <v>44482.227502000002</v>
       </c>
       <c r="B24" s="1">
-        <v>12.356174</v>
+        <v>12.356173999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.170000</v>
+        <v>1247.17</v>
       </c>
       <c r="D24" s="1">
-        <v>-283.662000</v>
+        <v>-283.66199999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>44492.652449</v>
+        <v>44492.652449000001</v>
       </c>
       <c r="G24" s="1">
-        <v>12.359070</v>
+        <v>12.359069999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.740000</v>
+        <v>1269.74</v>
       </c>
       <c r="I24" s="1">
-        <v>-248.302000</v>
+        <v>-248.30199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>44503.475122</v>
+        <v>44503.475122000003</v>
       </c>
       <c r="L24" s="1">
         <v>12.362076</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-195.280000</v>
+        <v>-195.28</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>44513.986868</v>
@@ -6180,315 +6596,315 @@
         <v>12.364996</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.710000</v>
+        <v>1317.71</v>
       </c>
       <c r="S24" s="1">
-        <v>-179.780000</v>
+        <v>-179.78</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>44524.381504</v>
+        <v>44524.381503999997</v>
       </c>
       <c r="V24" s="1">
         <v>12.367884</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.970000</v>
+        <v>1331.97</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.507000</v>
+        <v>-168.50700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>44534.913546</v>
+        <v>44534.913546000003</v>
       </c>
       <c r="AA24" s="1">
         <v>12.370809</v>
       </c>
       <c r="AB24" s="1">
-        <v>1350.230000</v>
+        <v>1350.23</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.751000</v>
+        <v>-167.751</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>44545.403967</v>
+        <v>44545.403966999998</v>
       </c>
       <c r="AF24" s="1">
         <v>12.373723</v>
       </c>
       <c r="AG24" s="1">
-        <v>1363.680000</v>
+        <v>1363.68</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.984000</v>
+        <v>-177.98400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>44556.269789</v>
+        <v>44556.269788999998</v>
       </c>
       <c r="AK24" s="1">
         <v>12.376742</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.800000</v>
+        <v>1384.8</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.364000</v>
+        <v>-208.364</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>44567.188222</v>
+        <v>44567.188221999997</v>
       </c>
       <c r="AP24" s="1">
         <v>12.379775</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.740000</v>
+        <v>1406.74</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.360000</v>
+        <v>-252.36</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>44578.405775</v>
+        <v>44578.405774999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.382890</v>
+        <v>12.38289</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.474000</v>
+        <v>-312.47399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>44589.366862</v>
+        <v>44589.366862000003</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.385935</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.760000</v>
+        <v>1450.76</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.595000</v>
+        <v>-364.59500000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>44599.977252</v>
+        <v>44599.977251999997</v>
       </c>
       <c r="BE24" s="1">
         <v>12.388883</v>
       </c>
       <c r="BF24" s="1">
-        <v>1536.070000</v>
+        <v>1536.07</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.993000</v>
+        <v>-612.99300000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>44611.320794</v>
+        <v>44611.320793999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.392034</v>
+        <v>12.392034000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1690.180000</v>
+        <v>1690.18</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1058.330000</v>
+        <v>-1058.33</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>44623.636916</v>
+        <v>44623.636916000003</v>
       </c>
       <c r="BO24" s="1">
         <v>12.395455</v>
       </c>
       <c r="BP24" s="1">
-        <v>1983.710000</v>
+        <v>1983.71</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1830.250000</v>
+        <v>-1830.25</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>44634.356472</v>
+        <v>44634.356471999999</v>
       </c>
       <c r="BT24" s="1">
         <v>12.398432</v>
       </c>
       <c r="BU24" s="1">
-        <v>2368.970000</v>
+        <v>2368.9699999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2724.230000</v>
+        <v>-2724.23</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>44645.683590</v>
+        <v>44645.683590000001</v>
       </c>
       <c r="BY24" s="1">
         <v>12.401579</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2853.090000</v>
+        <v>2853.09</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3696.040000</v>
+        <v>-3696.04</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>44658.827574</v>
+        <v>44658.827574000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>12.405230</v>
+        <v>12.40523</v>
       </c>
       <c r="CE24" s="1">
-        <v>4269.850000</v>
+        <v>4269.8500000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6034.390000</v>
+        <v>-6034.39</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>44482.568750</v>
+        <v>44482.568749999999</v>
       </c>
       <c r="B25" s="1">
-        <v>12.356269</v>
+        <v>12.356268999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-283.537000</v>
+        <v>-283.53699999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>44493.340864</v>
+        <v>44493.340863999998</v>
       </c>
       <c r="G25" s="1">
         <v>12.359261</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.980000</v>
+        <v>1269.98</v>
       </c>
       <c r="I25" s="1">
-        <v>-247.004000</v>
+        <v>-247.00399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>44503.820370</v>
+        <v>44503.820370000001</v>
       </c>
       <c r="L25" s="1">
-        <v>12.362172</v>
+        <v>12.362171999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.150000</v>
+        <v>1305.1500000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-195.548000</v>
+        <v>-195.548</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>44514.335028</v>
+        <v>44514.335028000001</v>
       </c>
       <c r="Q25" s="1">
         <v>12.365093</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.660000</v>
+        <v>1317.66</v>
       </c>
       <c r="S25" s="1">
-        <v>-179.719000</v>
+        <v>-179.71899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>44524.727233</v>
+        <v>44524.727232999998</v>
       </c>
       <c r="V25" s="1">
-        <v>12.367980</v>
+        <v>12.367979999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.810000</v>
+        <v>1331.81</v>
       </c>
       <c r="X25" s="1">
-        <v>-168.604000</v>
+        <v>-168.60400000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>44535.263722</v>
+        <v>44535.263722000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>12.370907</v>
+        <v>12.370907000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1350.120000</v>
+        <v>1350.12</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.758000</v>
+        <v>-167.75800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>44546.060138</v>
+        <v>44546.060138000001</v>
       </c>
       <c r="AF25" s="1">
         <v>12.373906</v>
       </c>
       <c r="AG25" s="1">
-        <v>1363.700000</v>
+        <v>1363.7</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.019000</v>
+        <v>-178.01900000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>44556.649264</v>
@@ -6497,180 +6913,180 @@
         <v>12.376847</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.800000</v>
+        <v>1384.8</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.367000</v>
+        <v>-208.36699999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>44567.593977</v>
+        <v>44567.593976999997</v>
       </c>
       <c r="AP25" s="1">
         <v>12.379887</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.391000</v>
+        <v>-252.39099999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>44578.767856</v>
+        <v>44578.767855999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>12.382991</v>
+        <v>12.382991000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.410000</v>
+        <v>1431.41</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.442000</v>
+        <v>-312.44200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>44589.725938</v>
+        <v>44589.725938000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.386035</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.633000</v>
+        <v>-364.63299999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>44600.340323</v>
+        <v>44600.340322999997</v>
       </c>
       <c r="BE25" s="1">
         <v>12.388983</v>
       </c>
       <c r="BF25" s="1">
-        <v>1536.070000</v>
+        <v>1536.07</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.005000</v>
+        <v>-613.005</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>44611.747353</v>
+        <v>44611.747352999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.392152</v>
+        <v>12.392151999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1690.150000</v>
+        <v>1690.15</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1058.360000</v>
+        <v>-1058.3599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>44624.027795</v>
+        <v>44624.027795000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>12.395563</v>
+        <v>12.395562999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1983.740000</v>
+        <v>1983.74</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1830.290000</v>
+        <v>-1830.29</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>44634.750774</v>
       </c>
       <c r="BT25" s="1">
-        <v>12.398542</v>
+        <v>12.398542000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2369.460000</v>
+        <v>2369.46</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2724.430000</v>
+        <v>-2724.43</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>44646.108696</v>
+        <v>44646.108696000003</v>
       </c>
       <c r="BY25" s="1">
         <v>12.401697</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.930000</v>
+        <v>2852.93</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3695.490000</v>
+        <v>-3695.49</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>44659.367220</v>
+        <v>44659.36722</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.405380</v>
+        <v>12.405379999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4268.970000</v>
+        <v>4268.97</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6056.750000</v>
+        <v>-6056.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>44483.253230</v>
+        <v>44483.253230000002</v>
       </c>
       <c r="B26" s="1">
-        <v>12.356459</v>
+        <v>12.356458999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.090000</v>
+        <v>1247.0899999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-283.571000</v>
+        <v>-283.57100000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>44493.685123</v>
+        <v>44493.685123000003</v>
       </c>
       <c r="G26" s="1">
-        <v>12.359357</v>
+        <v>12.359356999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.900000</v>
+        <v>1268.9000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-248.382000</v>
+        <v>-248.38200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>44504.163105</v>
@@ -6679,225 +7095,226 @@
         <v>12.362268</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.160000</v>
+        <v>1305.1600000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-195.216000</v>
+        <v>-195.21600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>44514.684708</v>
+        <v>44514.684708000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>12.365190</v>
+        <v>12.36519</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.670000</v>
+        <v>1317.67</v>
       </c>
       <c r="S26" s="1">
-        <v>-179.781000</v>
+        <v>-179.78100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>44525.375479</v>
+        <v>44525.375479000002</v>
       </c>
       <c r="V26" s="1">
-        <v>12.368160</v>
+        <v>12.36816</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.890000</v>
+        <v>1331.89</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.500000</v>
+        <v>-168.5</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>44535.960599</v>
+        <v>44535.960598999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.371100</v>
+        <v>12.3711</v>
       </c>
       <c r="AB26" s="1">
-        <v>1350.210000</v>
+        <v>1350.21</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.846000</v>
+        <v>-167.846</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>44546.433625</v>
+        <v>44546.433624999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.374009</v>
+        <v>12.374008999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1363.630000</v>
+        <v>1363.63</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.130000</v>
+        <v>-178.13</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>44556.998936</v>
+        <v>44556.998936000004</v>
       </c>
       <c r="AK26" s="1">
         <v>12.376944</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.810000</v>
+        <v>1384.81</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.345000</v>
+        <v>-208.345</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>44567.975375</v>
+        <v>44567.975375000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>12.379993</v>
+        <v>12.379993000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.730000</v>
+        <v>1406.73</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.392000</v>
+        <v>-252.392</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>44579.133376</v>
+        <v>44579.133375999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.383093</v>
+        <v>12.383093000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.390000</v>
+        <v>1431.39</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.468000</v>
+        <v>-312.46800000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>44590.155016</v>
+        <v>44590.155015999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.386154</v>
+        <v>12.386153999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.572000</v>
+        <v>-364.572</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>44600.773826</v>
+        <v>44600.773825999997</v>
       </c>
       <c r="BE26" s="1">
         <v>12.389104</v>
       </c>
       <c r="BF26" s="1">
-        <v>1536.080000</v>
+        <v>1536.08</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.964000</v>
+        <v>-612.96400000000006</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>44612.095043</v>
+        <v>44612.095043000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.392249</v>
       </c>
       <c r="BK26" s="1">
-        <v>1690.120000</v>
+        <v>1690.12</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1058.300000</v>
+        <v>-1058.3</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>44624.444900</v>
+        <v>44624.444900000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.395679</v>
+        <v>12.395678999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1983.730000</v>
+        <v>1983.73</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1830.210000</v>
+        <v>-1830.21</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>44635.168406</v>
+        <v>44635.168405999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.398658</v>
+        <v>12.398657999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.330000</v>
+        <v>2370.33</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2724.510000</v>
+        <v>-2724.51</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>44646.523317</v>
+        <v>44646.523316999999</v>
       </c>
       <c r="BY26" s="1">
         <v>12.401812</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2853.400000</v>
+        <v>2853.4</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3696.190000</v>
+        <v>-3696.19</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>44659.906373</v>
+        <v>44659.906372999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.405530</v>
+        <v>12.405530000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4279.280000</v>
+        <v>4279.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6034.880000</v>
+        <v>-6034.88</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>